--- a/biology/Botanique/Helichrysum_biafranum/Helichrysum_biafranum.xlsx
+++ b/biology/Botanique/Helichrysum_biafranum/Helichrysum_biafranum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helichrysum biafranum Hook.f. est une espèce de plantes de la famille des Asteraceae et du genre Helichrysum, endémique du Cameroun.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique biafranum fait référence au golfe du Biafra, proche du mont Cameroun, où l'espèce a été découverte.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, cette espèce de plante à fleurs est une herbe ligneuse qui a été localisée à deux reprises, d'abord en 1862, puis en 1952, dans la zone du Mont Cameroun, aux environs de Mann's Spring, en lisière de la forêt montagnarde, à une altitude d'environ 2 100-2 200 m. Les recherches ultérieures n'ayant pas abouti pour le moment, elle est jugée menacée[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, cette espèce de plante à fleurs est une herbe ligneuse qui a été localisée à deux reprises, d'abord en 1862, puis en 1952, dans la zone du Mont Cameroun, aux environs de Mann's Spring, en lisière de la forêt montagnarde, à une altitude d'environ 2 100-2 200 m. Les recherches ultérieures n'ayant pas abouti pour le moment, elle est jugée menacée.
 </t>
         </is>
       </c>
